--- a/vtiger-crm-framework-m5/src/test/resources/testScriptData.xlsx
+++ b/vtiger-crm-framework-m5/src/test/resources/testScriptData.xlsx
@@ -4,10 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dummy" sheetId="1" r:id="rId1"/>
+    <sheet name="org" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId5"/>
+    <sheet name="contact" sheetId="3" r:id="rId6"/>
+    <sheet name="opp" sheetId="4" r:id="rId7"/>
+    <sheet name="leads" sheetId="5" r:id="rId8"/>
+    <sheet name="po" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>students</t>
   </si>
@@ -46,6 +54,45 @@
   </si>
   <si>
     <t>rahul</t>
+  </si>
+  <si>
+    <t>orgName</t>
+  </si>
+  <si>
+    <t>Makunai_</t>
+  </si>
+  <si>
+    <t>ey_</t>
+  </si>
+  <si>
+    <t>google_</t>
+  </si>
+  <si>
+    <t>ty_</t>
+  </si>
+  <si>
+    <t>qsp_</t>
+  </si>
+  <si>
+    <t>jsp_</t>
+  </si>
+  <si>
+    <t>prosp_</t>
+  </si>
+  <si>
+    <t>pysp_</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>987654321</t>
   </si>
 </sst>
 </file>
@@ -102,10 +149,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" workbookViewId="0">
+    <sheetView zoomScale="226" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -442,4 +490,178 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>9876543</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>